--- a/4_Data_Extraction/4_2_Open_Data/Paper_51/Clean_Data/CodeBook_P51_Exp1_Clean.xlsx
+++ b/4_Data_Extraction/4_2_Open_Data/Paper_51/Clean_Data/CodeBook_P51_Exp1_Clean.xlsx
@@ -47,7 +47,7 @@
     <t>Subject ID</t>
   </si>
   <si>
-    <t>Integer</t>
+    <t>NA</t>
   </si>
   <si>
     <t>Numeric</t>
@@ -59,7 +59,7 @@
     <t>Whether the label-shape pairing conforms to task</t>
   </si>
   <si>
-    <t>"Matching" or "Not matching"</t>
+    <t>Matching;Nomatching</t>
   </si>
   <si>
     <t>Categorical</t>
@@ -71,7 +71,7 @@
     <t>Identity label</t>
   </si>
   <si>
-    <t>"Self", "Stranger", "Celebrity"</t>
+    <t>Self;Stranger;Celebrity</t>
   </si>
   <si>
     <t>Session</t>
@@ -80,6 +80,9 @@
     <t>Session number</t>
   </si>
   <si>
+    <t>1;2;3;4</t>
+  </si>
+  <si>
     <t>RT_ms</t>
   </si>
   <si>
@@ -98,22 +101,19 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Float</t>
-  </si>
-  <si>
     <t>Mood</t>
   </si>
   <si>
     <t>Mood induced during session</t>
   </si>
   <si>
-    <t>"Happiness", "Anxiety", "Serenity", "Depression"</t>
-  </si>
-  <si>
     <t>Arouse</t>
   </si>
   <si>
     <t>Arousal level rating</t>
+  </si>
+  <si>
+    <t>1;2;3;4;5;6;7;8</t>
   </si>
   <si>
     <t>Valence</t>
@@ -1062,15 +1062,15 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
+    <col min="1" max="1" width="13.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="44.1666666666667" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
-    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="38.4166666666667" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1137,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -1159,10 +1159,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -1173,13 +1173,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1193,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -1221,7 +1221,7 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
